--- a/BrokenLinkValidator/Datatables/SiteMapUrl_CB8.xlsx
+++ b/BrokenLinkValidator/Datatables/SiteMapUrl_CB8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WC Bradley Workspace\BrokenLinkValidator\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Broken Links Workspace\BrokenLinkValidator\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1261">
   <si>
     <t>CB New Site URLs</t>
   </si>
@@ -2128,225 +2128,6 @@
     <t>https://www.charbroil.com/cook/smoked-pork-loin-rub-recipe/</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/damper-cb056605</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/leg-cb057002</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/leg-cap-cb057003</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hardware-pack-cb057006</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/firebox-cb057601</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/lid-cb058601</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/logo-plate-kit-cb058602</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/shelf-mount-bracket-l-for-rb-g3099702w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/shelf-mount-bracket-r-for-lb-g3099703w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/handle-g3201601w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/front-panel-g3201701w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/tank-exclusion-wire-g3201702w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/lid-g3202001w2</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/valve-hose-regulator-g3202200w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/firebox-g3202300w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-g3202400w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/swingaway-stop-pin-g3203004w2</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hardware-pack-g32002b001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/swingaway-rack-g3210001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/front-panel-g3210002w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rail-for-grease-tray-g3210003w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/top-lid-g3210100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/firebox-g3210300w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-main-g3210400w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bottom-shelf-g3210600w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rear-cart-brace-g3210700w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/grease-tray-g3210800w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/cart-side-panel-left-g3211100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/handle-for-lid-g3215001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/heat-shield-for-handle-g3215002w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/lower-control-panel-g3215201w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/electronic-ignition-module-g3215202w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hose-valve-regulator-g3215300w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/fascia-for-left-shelf-g3215401w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/top-lid-g3216100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/firebox-g3216300w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/left-cart-frame-g3217100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/right-cart-frame-g3217200w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bottom-shelf-g3217400w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/caster-fender-g3217401w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/back-rail-g3217600w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/upper-door-brace-g3217800w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-main-g3218200w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/left-side-shelf-g3218400w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/right-side-shelf-g3218600w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/door-no-handle-g3218801w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hardware-pack-g32101b001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hardware-pack-g32102b001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/regulator-hose-clip-g3510043w3</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-main-g3620050w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/fixed-side-shelf-g3620600w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/top-lid-g3650001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/warming-rack-g3650005w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/left-cart-frame-g3650006w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/right-cart-frame-g3650007w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rear-panel-lower-g3650009w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/rear-panel-upper-g3650010w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/shield-for-firebox-g3650011w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/shield-for-tank-g3650012w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bushing-for-door-handle-g3650017w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/cart-panel-for-sideshelf-left-g3650400w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/cart-panel-for-sideshelf-right-g3650500w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/bottom-shelf-g3650600w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/right-side-shelf-g3650700w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/control-panel-main-g3650800w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/grease-tray-g3651000w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/door-no-handle-g3651100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/firebox-g3653100w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hose-valve-regulator-g3655000w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/upper-door-brace-g3659000w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/hardware-pack-g365b001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/top-lid-g4220001w1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/top-lid-hardware-g4220003w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/top-lid-hardware-g4220003w2</t>
   </si>
   <si>
@@ -2692,9 +2473,6 @@
     <t>https://www.charbroil.com/left-door-g6521401w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/right-door-g6521501w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/main-burnersearing-burner-g6521600w1</t>
   </si>
   <si>
@@ -2941,9 +2719,6 @@
     <t>https://www.charbroil.com/towel-bar-tool-holder-cb051614</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/lid-exhaust-damper-cb051619</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/handle-bezel-cb051620</t>
   </si>
   <si>
@@ -3214,9 +2989,6 @@
     <t>https://www.charbroil.com/rear-brace-g4700007w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/hardware-pack-g47001b001w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/aspire-silicone-basting-brush-with-bowl-1</t>
   </si>
   <si>
@@ -3349,9 +3121,6 @@
     <t>https://www.charbroil.com/heat-shield-g2150202w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/front-panel-g2150501w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/tank-exclusion-wire-g2150503w1</t>
   </si>
   <si>
@@ -3370,9 +3139,6 @@
     <t>https://www.charbroil.com/leg-right-front-lower-g2151000w1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/leg-right-front-upper-g2151100w1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/leg-right-back-lower-g2151200w1</t>
   </si>
   <si>
@@ -3538,9 +3304,6 @@
     <t>https://www.charbroil.com/universal-bar-burner-and-heat-tent-combo-1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/universal-porcelain-cast-iron-burner-1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/main-control-panel-top-g46600b8w1</t>
   </si>
   <si>
@@ -3607,9 +3370,6 @@
     <t>https://www.charbroil.com/traditional-6-burner-gas-grill-6</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Main-Control-Panel-Bottom-G5330051W1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Hardware-Pack-G533B001W1A</t>
   </si>
   <si>
@@ -3787,12 +3547,6 @@
     <t>https://www.charbroil.com/Refrigerator-Rail-A1070013W1</t>
   </si>
   <si>
-    <t>https://www.charbroil.com/Refrigerator-Front-Vent-A1070016W1</t>
-  </si>
-  <si>
-    <t>https://www.charbroil.com/Refrigerator-Light-Kit-A1070017W1</t>
-  </si>
-  <si>
     <t>https://www.charbroil.com/Bottom-Shelf-A1070100W1</t>
   </si>
   <si>
@@ -3926,6 +3680,129 @@
   </si>
   <si>
     <t>https://www.charbroil.com/Lid-Hinge-Bushing-G3600011W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/non-stick-grill-basket-with-handle</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/right-door-no-handle-g4651400w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/main-control-panel-bottom-g5330051w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/refrigerator-front-vent-a1070016w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/refrigerator-light-kit-a1070017w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/rotisserie-bracket-support-g3600012w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/weight-block-g4120030w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/side-shelf-connection-brace-g4660029w3</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/bottom-shelf-g4720001w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/rear-panel-upper-cart-g4720002w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/bezel-for-control-knob-g6190017w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/control-knob-g6190018w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/igniter-switch-module-g6190019w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/light-switch-for-bezel-g6190020w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Transformer-G6190052W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Ac-Dc-Converter-G6190053W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Electrode-Set-For-Main-Burner-900mm-Wire-G6190067W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/lp-tank-shelf-g6193000w1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Control-Panel-Top-Main-G6200003W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Control-Panel-Bottom-Main-G6200004W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Match-Holder-G6200005W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Rear-Panel-Lower-G6200007W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Rear-Panel-Upper-G6200008W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Heat-Shield-Firebox-G6200009W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Heat-Shield-For-Tank-G6200010W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Firebox-Bracket-G6200011W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Cart-Partition-Panel-Vertical-G6200013W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Cart-Partition-Panel-Horizontal-G6200014W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Top-Lid-Left-G6200100W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Top-Lid-Right-G6200200W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Bottom-Shelf-G6200500W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Firebox-G6203100W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Hose-Valve-Regulator-G6204100W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Upper-Door-Brace-G6206000W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Hardware-Pack-G620B001W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Weight-Block-G6510012W2</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/Handle-F8010029W1</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/modular-outdoor-bar-top</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/4-burner-gas-griddle</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/modular-outdoor-tru-infrared-3-burner-gas-grill</t>
+  </si>
+  <si>
+    <t>https://www.charbroil.com/modular-outdoor-stove-top</t>
   </si>
 </sst>
 </file>
@@ -3980,7 +3857,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3993,8 +3870,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4030,6 +3913,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4039,7 +3935,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4052,7 +3948,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -9970,7 +9867,7 @@
   <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B601"/>
+      <selection activeCell="A2" sqref="A2:A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9988,7 +9885,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>702</v>
@@ -9996,15 +9893,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>4202</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>704</v>
@@ -10012,15 +9909,15 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4204</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>706</v>
@@ -10028,15 +9925,15 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>4206</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>708</v>
@@ -10044,15 +9941,15 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>4208</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>710</v>
@@ -10060,15 +9957,15 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>4210</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>712</v>
@@ -10076,15 +9973,15 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>4212</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>714</v>
@@ -10092,15 +9989,15 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>4214</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>716</v>
@@ -10108,15 +10005,15 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>4216</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>718</v>
@@ -10124,15 +10021,15 @@
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>4218</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>720</v>
@@ -10140,15 +10037,15 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>4220</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>722</v>
@@ -10156,15 +10053,15 @@
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>4222</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>724</v>
@@ -10172,15 +10069,15 @@
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>4224</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>726</v>
@@ -10188,15 +10085,15 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>4226</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>728</v>
@@ -10204,15 +10101,15 @@
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>4228</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>730</v>
@@ -10220,15 +10117,15 @@
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>4230</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>732</v>
@@ -10236,15 +10133,15 @@
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>4232</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>734</v>
@@ -10252,15 +10149,15 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>4234</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>736</v>
@@ -10268,15 +10165,15 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>4236</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>738</v>
@@ -10284,15 +10181,15 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>4238</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>740</v>
@@ -10300,15 +10197,15 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>4240</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>742</v>
@@ -10316,15 +10213,15 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>4242</v>
-      </c>
-      <c r="B43" s="6" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>744</v>
@@ -10332,15 +10229,15 @@
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>4244</v>
-      </c>
-      <c r="B45" s="6" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>746</v>
@@ -10348,15 +10245,15 @@
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>4246</v>
-      </c>
-      <c r="B47" s="6" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>748</v>
@@ -10364,15 +10261,15 @@
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>4248</v>
-      </c>
-      <c r="B49" s="6" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>750</v>
@@ -10380,15 +10277,15 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>4250</v>
-      </c>
-      <c r="B51" s="6" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>752</v>
@@ -10396,15 +10293,15 @@
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>4252</v>
-      </c>
-      <c r="B53" s="6" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>754</v>
@@ -10412,15 +10309,15 @@
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>4254</v>
-      </c>
-      <c r="B55" s="6" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>756</v>
@@ -10428,15 +10325,15 @@
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>4256</v>
-      </c>
-      <c r="B57" s="6" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>758</v>
@@ -10444,15 +10341,15 @@
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>4258</v>
-      </c>
-      <c r="B59" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>760</v>
@@ -10460,15 +10357,15 @@
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>4260</v>
-      </c>
-      <c r="B61" s="6" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>762</v>
@@ -10476,15 +10373,15 @@
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>4262</v>
-      </c>
-      <c r="B63" s="6" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>764</v>
@@ -10492,15 +10389,15 @@
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>4264</v>
-      </c>
-      <c r="B65" s="6" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>766</v>
@@ -10508,15 +10405,15 @@
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>4266</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>768</v>
@@ -10524,15 +10421,15 @@
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>4268</v>
-      </c>
-      <c r="B69" s="6" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>770</v>
@@ -10540,15 +10437,15 @@
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>4270</v>
-      </c>
-      <c r="B71" s="6" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>772</v>
@@ -10556,15 +10453,15 @@
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>4272</v>
-      </c>
-      <c r="B73" s="6" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>774</v>
@@ -10572,15 +10469,15 @@
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>4274</v>
-      </c>
-      <c r="B75" s="6" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>776</v>
@@ -10588,15 +10485,15 @@
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>4276</v>
-      </c>
-      <c r="B77" s="6" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>778</v>
@@ -10604,15 +10501,15 @@
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>4278</v>
-      </c>
-      <c r="B79" s="6" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>780</v>
@@ -10620,15 +10517,15 @@
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>4280</v>
-      </c>
-      <c r="B81" s="6" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>782</v>
@@ -10636,15 +10533,15 @@
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>4282</v>
-      </c>
-      <c r="B83" s="6" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>784</v>
@@ -10652,15 +10549,15 @@
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>4284</v>
-      </c>
-      <c r="B85" s="6" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>786</v>
@@ -10668,15 +10565,15 @@
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>4286</v>
-      </c>
-      <c r="B87" s="6" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>788</v>
@@ -10684,15 +10581,15 @@
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>4288</v>
-      </c>
-      <c r="B89" s="6" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>790</v>
@@ -10700,15 +10597,15 @@
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>4290</v>
-      </c>
-      <c r="B91" s="6" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>792</v>
@@ -10716,15 +10613,15 @@
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>4292</v>
-      </c>
-      <c r="B93" s="6" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>794</v>
@@ -10732,15 +10629,15 @@
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>4294</v>
-      </c>
-      <c r="B95" s="6" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>796</v>
@@ -10748,15 +10645,15 @@
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>4296</v>
-      </c>
-      <c r="B97" s="6" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>798</v>
@@ -10764,15 +10661,15 @@
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>4298</v>
-      </c>
-      <c r="B99" s="6" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>800</v>
@@ -10780,15 +10677,15 @@
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>4300</v>
-      </c>
-      <c r="B101" s="6" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>802</v>
@@ -10796,15 +10693,15 @@
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>4302</v>
-      </c>
-      <c r="B103" s="6" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>804</v>
@@ -10812,15 +10709,15 @@
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>4304</v>
-      </c>
-      <c r="B105" s="6" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>806</v>
@@ -10828,15 +10725,15 @@
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>4306</v>
-      </c>
-      <c r="B107" s="6" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>808</v>
@@ -10844,15 +10741,15 @@
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>4308</v>
-      </c>
-      <c r="B109" s="6" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>810</v>
@@ -10860,15 +10757,15 @@
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>4310</v>
-      </c>
-      <c r="B111" s="6" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>812</v>
@@ -10876,15 +10773,15 @@
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>4312</v>
-      </c>
-      <c r="B113" s="6" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>814</v>
@@ -10892,15 +10789,15 @@
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>4314</v>
-      </c>
-      <c r="B115" s="6" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>816</v>
@@ -10908,15 +10805,15 @@
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>4316</v>
-      </c>
-      <c r="B117" s="6" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>818</v>
@@ -10924,15 +10821,15 @@
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>4318</v>
-      </c>
-      <c r="B119" s="6" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>820</v>
@@ -10940,15 +10837,15 @@
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>4320</v>
-      </c>
-      <c r="B121" s="6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>822</v>
@@ -10956,15 +10853,15 @@
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>4322</v>
-      </c>
-      <c r="B123" s="6" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>824</v>
@@ -10972,15 +10869,15 @@
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>4324</v>
-      </c>
-      <c r="B125" s="6" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>826</v>
@@ -10988,15 +10885,15 @@
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>4326</v>
-      </c>
-      <c r="B127" s="6" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>828</v>
@@ -11004,15 +10901,15 @@
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>4328</v>
-      </c>
-      <c r="B129" s="6" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>830</v>
@@ -11020,15 +10917,15 @@
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>4330</v>
-      </c>
-      <c r="B131" s="6" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>832</v>
@@ -11036,15 +10933,15 @@
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>4332</v>
-      </c>
-      <c r="B133" s="6" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>834</v>
@@ -11052,15 +10949,15 @@
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>4334</v>
-      </c>
-      <c r="B135" s="6" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>836</v>
@@ -11068,15 +10965,15 @@
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>4336</v>
-      </c>
-      <c r="B137" s="6" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>838</v>
@@ -11084,15 +10981,15 @@
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>4338</v>
-      </c>
-      <c r="B139" s="6" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>840</v>
@@ -11100,15 +10997,15 @@
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>4340</v>
-      </c>
-      <c r="B141" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>842</v>
@@ -11116,15 +11013,15 @@
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>4342</v>
-      </c>
-      <c r="B143" s="6" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>844</v>
@@ -11132,15 +11029,15 @@
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>4344</v>
-      </c>
-      <c r="B145" s="6" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>846</v>
@@ -11148,15 +11045,15 @@
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>4346</v>
-      </c>
-      <c r="B147" s="6" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>848</v>
@@ -11164,15 +11061,15 @@
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>4348</v>
-      </c>
-      <c r="B149" s="6" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>850</v>
@@ -11180,15 +11077,15 @@
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>4350</v>
-      </c>
-      <c r="B151" s="6" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>852</v>
@@ -11196,15 +11093,15 @@
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>4352</v>
-      </c>
-      <c r="B153" s="6" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>854</v>
@@ -11212,15 +11109,15 @@
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>4354</v>
-      </c>
-      <c r="B155" s="6" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>856</v>
@@ -11228,15 +11125,15 @@
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>4356</v>
-      </c>
-      <c r="B157" s="6" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>858</v>
@@ -11244,15 +11141,15 @@
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>4358</v>
-      </c>
-      <c r="B159" s="6" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>860</v>
@@ -11260,15 +11157,15 @@
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>4360</v>
-      </c>
-      <c r="B161" s="6" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>862</v>
@@ -11276,15 +11173,15 @@
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>4362</v>
-      </c>
-      <c r="B163" s="6" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>864</v>
@@ -11292,15 +11189,15 @@
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>4364</v>
-      </c>
-      <c r="B165" s="6" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>866</v>
@@ -11308,15 +11205,15 @@
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>4366</v>
-      </c>
-      <c r="B167" s="6" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>868</v>
@@ -11324,15 +11221,15 @@
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>4368</v>
-      </c>
-      <c r="B169" s="6" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>870</v>
@@ -11340,15 +11237,15 @@
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>4370</v>
-      </c>
-      <c r="B171" s="6" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>872</v>
@@ -11356,15 +11253,15 @@
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>4372</v>
-      </c>
-      <c r="B173" s="6" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>874</v>
@@ -11372,2815 +11269,2815 @@
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>4374</v>
-      </c>
-      <c r="B175" s="6" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>876</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>4376</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>877</v>
+        <v>4375</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>4378</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>879</v>
+        <v>4377</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>4380</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>881</v>
+        <v>4379</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>4382</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>883</v>
+        <v>4381</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>4384</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>885</v>
+        <v>4383</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>4386</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>887</v>
+        <v>4385</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>4388</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>889</v>
+        <v>4387</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>4390</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>891</v>
+        <v>4389</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>4392</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>893</v>
+        <v>4391</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>4394</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>895</v>
+        <v>4393</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>4396</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>897</v>
+        <v>4395</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>4398</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>899</v>
+        <v>4397</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>4400</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>901</v>
+        <v>4399</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>4402</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>903</v>
+        <v>4401</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>4404</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>905</v>
+        <v>4403</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>4406</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>907</v>
+        <v>4405</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>4408</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>909</v>
+        <v>4407</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>4410</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>911</v>
+        <v>4409</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>4412</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>913</v>
+        <v>4411</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>4414</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>915</v>
+        <v>4413</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>4416</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>917</v>
+        <v>4415</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>4418</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>919</v>
+        <v>4417</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>4420</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>921</v>
+        <v>4419</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>4422</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>923</v>
+        <v>4421</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>4424</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>925</v>
+        <v>4423</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>4426</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>927</v>
+        <v>4425</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>4428</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>929</v>
+        <v>4427</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>4430</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>931</v>
+        <v>4429</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>4432</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>933</v>
+        <v>4431</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>4434</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>935</v>
+        <v>4433</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>4436</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>937</v>
+        <v>4435</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>4438</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>939</v>
+        <v>4437</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>4440</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>941</v>
+        <v>4439</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>4442</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>943</v>
+        <v>4441</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>4444</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>945</v>
+        <v>4443</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>4446</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>947</v>
+        <v>4445</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>4448</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>949</v>
+        <v>4447</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>4450</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>951</v>
+        <v>4449</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>4452</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>953</v>
+        <v>4451</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>4454</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>955</v>
+        <v>4453</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>4456</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>957</v>
+        <v>4455</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>4458</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>959</v>
+        <v>4457</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>4460</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>961</v>
+        <v>4459</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>4462</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>963</v>
+        <v>4461</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>4464</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>965</v>
+        <v>4463</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>4466</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>967</v>
+        <v>4465</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>4468</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>969</v>
+        <v>4467</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>4470</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>971</v>
+        <v>4469</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>4472</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>973</v>
+        <v>4471</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>4474</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>975</v>
+        <v>4473</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>4476</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>977</v>
+        <v>4475</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>4478</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>979</v>
+        <v>4477</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>4480</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>981</v>
+        <v>4479</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>4482</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>983</v>
+        <v>4481</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>4484</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>985</v>
+        <v>4483</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>4486</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>987</v>
+        <v>4485</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>4488</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>989</v>
+        <v>4487</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>4490</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>991</v>
+        <v>4489</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>4492</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>993</v>
+        <v>4491</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>4494</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>995</v>
+        <v>4493</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>4496</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>997</v>
+        <v>4495</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>4498</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>999</v>
+        <v>4497</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>4500</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>1001</v>
+        <v>4499</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>4502</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>1003</v>
+        <v>4501</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>4504</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>1005</v>
+        <v>4503</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>4506</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>1007</v>
+        <v>4505</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>4508</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>1009</v>
+        <v>4507</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>4510</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>1011</v>
+        <v>4509</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>4512</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>1013</v>
+        <v>4511</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>4514</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>1015</v>
+        <v>4513</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>4516</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>1017</v>
+        <v>4515</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>4518</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>1019</v>
+        <v>4517</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>4520</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>1021</v>
+        <v>4519</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>4522</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>1023</v>
+        <v>4521</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>4524</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>1025</v>
+        <v>4523</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>4526</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>1027</v>
+        <v>4525</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>4528</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>1029</v>
+        <v>4527</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>4530</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>1031</v>
+        <v>4529</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>4532</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>1033</v>
+        <v>4531</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>4534</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>1035</v>
+        <v>4533</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>4536</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>1037</v>
+        <v>4535</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>4538</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>1039</v>
+        <v>4537</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>4540</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>1041</v>
+        <v>4539</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>4542</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>1043</v>
+        <v>4541</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>4544</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>1045</v>
+        <v>4543</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>4546</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>1047</v>
+        <v>4545</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>4548</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>1049</v>
+        <v>4547</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>4550</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>1051</v>
+        <v>4549</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>4552</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>1053</v>
+        <v>4551</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>4554</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>1055</v>
+        <v>4553</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>4556</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>1057</v>
+        <v>4555</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>4558</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>1059</v>
+        <v>4557</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>4560</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>1061</v>
+        <v>4559</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>4562</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>1063</v>
+        <v>4561</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>4564</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>1065</v>
+        <v>4563</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>4566</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>1067</v>
+        <v>4565</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>4568</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>1069</v>
+        <v>4567</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>4570</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>1071</v>
+        <v>4569</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>4572</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>1073</v>
+        <v>4571</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>4574</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>1075</v>
+        <v>4573</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>4576</v>
-      </c>
-      <c r="B377" s="6" t="s">
-        <v>1077</v>
+        <v>4575</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>4578</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>1079</v>
+        <v>4577</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>4580</v>
-      </c>
-      <c r="B381" s="6" t="s">
-        <v>1081</v>
+        <v>4579</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>4582</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>1083</v>
+        <v>4581</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>4584</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>1085</v>
+        <v>4583</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>4586</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>1087</v>
+        <v>4585</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>4588</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>1089</v>
+        <v>4587</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>4590</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>1091</v>
+        <v>4589</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>4592</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>1093</v>
+        <v>4591</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>4594</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>1095</v>
+        <v>4593</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>4596</v>
-      </c>
-      <c r="B397" s="6" t="s">
-        <v>1097</v>
+        <v>4595</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>4598</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>1099</v>
+        <v>4597</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>4600</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>1101</v>
+        <v>4599</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>4602</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>1103</v>
+        <v>4601</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>4604</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>1105</v>
+        <v>4603</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>4606</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>1107</v>
+        <v>4605</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>4608</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>1109</v>
+        <v>4607</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>4610</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>1111</v>
+        <v>4609</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>4612</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>1113</v>
+        <v>4611</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>4614</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>1115</v>
+        <v>4613</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>4616</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>1117</v>
+        <v>4615</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>1118</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>4618</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>1119</v>
+        <v>4617</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>4620</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>1121</v>
+        <v>4619</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>4622</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>1123</v>
+        <v>4621</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>4624</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>1125</v>
+        <v>4623</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>4626</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>1127</v>
+        <v>4625</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>4628</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>1129</v>
+        <v>4627</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>4630</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>1131</v>
+        <v>4629</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>4632</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>1133</v>
+        <v>4631</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>4634</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>1135</v>
+        <v>4633</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>4636</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>1137</v>
+        <v>4635</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>4638</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>1139</v>
+        <v>4637</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>4640</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>1141</v>
+        <v>4639</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>4642</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>1143</v>
+        <v>4641</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>4644</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>1145</v>
+        <v>4643</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>4645</v>
+        <v>4644</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>4646</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>1147</v>
+        <v>4645</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>4648</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>1149</v>
+        <v>4647</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>4649</v>
+        <v>4648</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>4650</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>1151</v>
+        <v>4649</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>4652</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>1153</v>
+        <v>4651</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>4653</v>
+        <v>4652</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>4654</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>1155</v>
+        <v>4653</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>4656</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>1157</v>
+        <v>4655</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>4657</v>
+        <v>4656</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>4658</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>1159</v>
+        <v>4657</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>4659</v>
+        <v>4658</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>4660</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>1161</v>
+        <v>4659</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>4662</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>1163</v>
+        <v>4661</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>4663</v>
+        <v>4662</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>4664</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>1165</v>
+        <v>4663</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>4666</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>1167</v>
+        <v>4665</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>4668</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>1169</v>
+        <v>4667</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>4670</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>1171</v>
+        <v>4669</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>4672</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>1173</v>
+        <v>4671</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>4674</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>1175</v>
+        <v>4673</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>4676</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>1177</v>
+        <v>4675</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>4677</v>
+        <v>4676</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>1178</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>4678</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>1179</v>
+        <v>4677</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>4680</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>1181</v>
+        <v>4679</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>4682</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>1183</v>
+        <v>4681</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>4684</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>1185</v>
+        <v>4683</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>4686</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>1187</v>
+        <v>4685</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>4688</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>1189</v>
+        <v>4687</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>4690</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>1191</v>
+        <v>4689</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>4692</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>1193</v>
+        <v>4691</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>4694</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>1195</v>
+        <v>4693</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>4696</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>1197</v>
+        <v>4695</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>4698</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>1199</v>
+        <v>4697</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>4700</v>
-      </c>
-      <c r="B501" s="6" t="s">
-        <v>1201</v>
+        <v>4699</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>4702</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>1203</v>
+        <v>4701</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
-        <v>4704</v>
-      </c>
-      <c r="B505" s="6" t="s">
-        <v>1205</v>
+        <v>4703</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
-        <v>4706</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>1207</v>
+        <v>4705</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
-        <v>4708</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>1209</v>
+        <v>4707</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
-        <v>4710</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>1211</v>
+        <v>4709</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
-        <v>4712</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>1213</v>
+        <v>4711</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
-        <v>4714</v>
-      </c>
-      <c r="B515" s="6" t="s">
-        <v>1215</v>
+        <v>4713</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
-        <v>4716</v>
-      </c>
-      <c r="B517" s="6" t="s">
-        <v>1217</v>
+        <v>4715</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
-        <v>4718</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>1219</v>
+        <v>4717</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
-        <v>4720</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>1221</v>
+        <v>4719</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
-        <v>4722</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>1223</v>
+        <v>4721</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
-        <v>4724</v>
-      </c>
-      <c r="B525" s="6" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B525" s="7" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="B526" s="6" t="s">
         <v>1226</v>
@@ -14188,15 +14085,15 @@
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
-        <v>4726</v>
-      </c>
-      <c r="B527" s="6" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B527" s="7" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="B528" s="6" t="s">
         <v>1228</v>
@@ -14204,15 +14101,15 @@
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
-        <v>4728</v>
-      </c>
-      <c r="B529" s="6" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B529" s="7" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="B530" s="6" t="s">
         <v>1230</v>
@@ -14220,15 +14117,15 @@
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
-        <v>4730</v>
-      </c>
-      <c r="B531" s="6" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B531" s="7" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="B532" s="6" t="s">
         <v>1232</v>
@@ -14236,15 +14133,15 @@
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
-        <v>4732</v>
-      </c>
-      <c r="B533" s="6" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B533" s="7" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="B534" s="6" t="s">
         <v>1234</v>
@@ -14252,15 +14149,15 @@
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
-        <v>4734</v>
-      </c>
-      <c r="B535" s="6" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B535" s="7" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="B536" s="6" t="s">
         <v>1236</v>
@@ -14268,15 +14165,15 @@
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
-        <v>4736</v>
-      </c>
-      <c r="B537" s="6" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B537" s="7" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
-        <v>4737</v>
+        <v>4736</v>
       </c>
       <c r="B538" s="6" t="s">
         <v>1238</v>
@@ -14284,15 +14181,15 @@
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
-        <v>4738</v>
-      </c>
-      <c r="B539" s="6" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B539" s="7" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
-        <v>4739</v>
+        <v>4738</v>
       </c>
       <c r="B540" s="6" t="s">
         <v>1240</v>
@@ -14300,15 +14197,15 @@
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
-        <v>4740</v>
-      </c>
-      <c r="B541" s="6" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B541" s="7" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="B542" s="6" t="s">
         <v>1242</v>
@@ -14316,15 +14213,15 @@
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
-        <v>4742</v>
-      </c>
-      <c r="B543" s="6" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B543" s="7" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>1244</v>
@@ -14332,15 +14229,15 @@
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
-        <v>4744</v>
-      </c>
-      <c r="B545" s="6" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B545" s="7" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="B546" s="6" t="s">
         <v>1246</v>
@@ -14348,15 +14245,15 @@
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
-        <v>4746</v>
-      </c>
-      <c r="B547" s="6" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B547" s="7" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="B548" s="6" t="s">
         <v>1248</v>
@@ -14364,15 +14261,15 @@
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
-        <v>4748</v>
-      </c>
-      <c r="B549" s="6" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B549" s="7" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="B550" s="6" t="s">
         <v>1250</v>
@@ -14380,15 +14277,15 @@
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
-        <v>4750</v>
-      </c>
-      <c r="B551" s="6" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B551" s="7" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="B552" s="6" t="s">
         <v>1252</v>
@@ -14396,15 +14293,15 @@
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
-        <v>4752</v>
-      </c>
-      <c r="B553" s="6" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B553" s="7" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="B554" s="6" t="s">
         <v>1254</v>
@@ -14412,15 +14309,15 @@
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
-        <v>4754</v>
-      </c>
-      <c r="B555" s="6" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B555" s="7" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="B556" s="6" t="s">
         <v>1256</v>
@@ -14428,15 +14325,15 @@
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
-        <v>4756</v>
-      </c>
-      <c r="B557" s="6" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B557" s="7" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
-        <v>4757</v>
+        <v>4756</v>
       </c>
       <c r="B558" s="6" t="s">
         <v>1258</v>
@@ -14444,15 +14341,15 @@
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
-        <v>4758</v>
-      </c>
-      <c r="B559" s="6" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B559" s="7" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="B560" s="6" t="s">
         <v>1260</v>
@@ -14460,330 +14357,330 @@
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
-        <v>4760</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>1261</v>
+        <v>4759</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>1262</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
-        <v>4762</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>1263</v>
+        <v>4761</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>1264</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
-        <v>4764</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>1265</v>
+        <v>4763</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>1266</v>
+        <v>7</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
-        <v>4766</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>1267</v>
+        <v>4765</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>1268</v>
+        <v>9</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
-        <v>4768</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>1269</v>
+        <v>4767</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>1270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
-        <v>4770</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>1271</v>
+        <v>4769</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>1272</v>
+        <v>13</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
-        <v>4772</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>1273</v>
+        <v>4771</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>1274</v>
+        <v>15</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
-        <v>4774</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>1275</v>
+        <v>4773</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>1276</v>
+        <v>17</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
-        <v>4776</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>1277</v>
+        <v>4775</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>1278</v>
+        <v>19</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
-        <v>4778</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>1279</v>
+        <v>4777</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>1280</v>
+        <v>21</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
-        <v>4780</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>1281</v>
+        <v>4779</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
-        <v>4781</v>
+        <v>4780</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>1282</v>
+        <v>23</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
-        <v>4782</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>1283</v>
+        <v>4781</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>1284</v>
+        <v>25</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
-        <v>4784</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>1285</v>
+        <v>4783</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>1286</v>
+        <v>27</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
-        <v>4786</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>1287</v>
+        <v>4785</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>1288</v>
+        <v>29</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
-        <v>4788</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>1289</v>
+        <v>4787</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>1290</v>
+        <v>31</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
-        <v>4790</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>1291</v>
+        <v>4789</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>1292</v>
+        <v>33</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
-        <v>4792</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>1293</v>
+        <v>4791</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>1294</v>
+        <v>35</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
-        <v>4794</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>1295</v>
+        <v>4793</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>1296</v>
+        <v>37</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
-        <v>4796</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>1297</v>
+        <v>4795</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>1298</v>
+        <v>39</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
-        <v>4798</v>
-      </c>
-      <c r="B599" s="6" t="s">
-        <v>1299</v>
+        <v>4797</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>1300</v>
+        <v>41</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
-        <v>4800</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>1301</v>
+        <v>4799</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
